--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P36_trail3 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P36_trail3 Features.xlsx
@@ -4487,7 +4487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4498,29 +4498,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4541,115 +4539,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4666,72 +4654,66 @@
         <v>3.571622311268878e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.4240241785056533</v>
+        <v>1.093400463151674e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.200924989148707</v>
+        <v>1.679929238184593e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.093400463151674e-06</v>
+        <v>-0.003450231779505964</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.679929238184593e-06</v>
+        <v>0.1252279943631773</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.003450231779505964</v>
+        <v>0.01569313314062493</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1252279943631773</v>
+        <v>1.926094467357592</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.01569313314062493</v>
+        <v>1.951867937040216</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.931129888366508</v>
+        <v>3.517400819048325</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.951867937040216</v>
+        <v>9.221415547100296e-17</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.517400819048325</v>
+        <v>820251716.8542025</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>9.221415547100296e-17</v>
+        <v>1.47142058977825e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>820251716.8542025</v>
+        <v>62.04287142720814</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.47142058977825e-07</v>
+        <v>0.0001564766026333708</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>62.04287142720814</v>
+        <v>10.47742500878972</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001564766026333708</v>
+        <v>1.148675057970668</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>10.47742500878972</v>
+        <v>0.01717744356902551</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.148675057970668</v>
+        <v>2.927682688745543</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01717744356902551</v>
+        <v>0.9619145577317619</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.927682688745543</v>
+        <v>1.315297814012316</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9619145577317619</v>
+        <v>62</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.315297814012316</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.4474553918544242</v>
       </c>
     </row>
@@ -4746,72 +4728,66 @@
         <v>3.583319457511313e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.4171806774426378</v>
+        <v>1.101554955946914e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.202344636309877</v>
+        <v>1.6789116148073e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.101554955946914e-06</v>
+        <v>-0.002391660534880056</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.6789116148073e-06</v>
+        <v>0.1243742898675197</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.002391660534880056</v>
+        <v>0.01547441083818068</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1243742898675197</v>
+        <v>1.923038889540948</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.01547441083818068</v>
+        <v>2.084084076642132</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.931901205149616</v>
+        <v>3.068888777755895</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.084084076642132</v>
+        <v>8.24061454766868e-17</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.068888777755895</v>
+        <v>882461660.5219476</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>8.24061454766868e-17</v>
+        <v>1.362009128862014e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>882461660.5219476</v>
+        <v>64.1728449005936</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.362009128862014e-07</v>
+        <v>0.0001795709394645442</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>64.1728449005936</v>
+        <v>9.754745788564891</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001795709394645442</v>
+        <v>1.578809640191555</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.754745788564891</v>
+        <v>0.01708708448860276</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.578809640191555</v>
+        <v>3.09127347183851</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01708708448860276</v>
+        <v>0.9602594905347059</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.09127347183851</v>
+        <v>1.32031235140406</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9602594905347059</v>
+        <v>62</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.32031235140406</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.4839164722687684</v>
       </c>
     </row>
@@ -4826,72 +4802,66 @@
         <v>3.592622838385806e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.4113053181401662</v>
+        <v>1.109483375828173e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.202768737205031</v>
+        <v>1.678127342691179e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.109483375828173e-06</v>
+        <v>-0.002108097868796205</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.678127342691179e-06</v>
+        <v>0.1239784244218472</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.002108097868796205</v>
+        <v>0.01537504586275459</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1239784244218472</v>
+        <v>1.917492380925021</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.01537504586275459</v>
+        <v>2.063260237953221</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.923156395792467</v>
+        <v>3.149946802401165</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.063260237953221</v>
+        <v>7.628199630961826e-17</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.149946802401165</v>
+        <v>911909121.8764592</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>7.628199630961826e-17</v>
+        <v>1.318794589768186e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>911909121.8764592</v>
+        <v>63.43444873536279</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.318794589768186e-07</v>
+        <v>0.0001664828850278773</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>63.43444873536279</v>
+        <v>9.620614779499713</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001664828850278773</v>
+        <v>1.379313089700924</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.620614779499713</v>
+        <v>0.01540902798719087</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.379313089700924</v>
+        <v>3.011654526710414</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01540902798719087</v>
+        <v>0.9596018859414764</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.011654526710414</v>
+        <v>1.331574595955513</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9596018859414764</v>
+        <v>62</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.331574595955513</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.423032057084412</v>
       </c>
     </row>
@@ -4906,72 +4876,66 @@
         <v>3.602386280112689e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.4050062583821439</v>
+        <v>1.117148755728958e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.202937864061125</v>
+        <v>1.677313036262113e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.117148755728958e-06</v>
+        <v>-0.002541223402309531</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.677313036262113e-06</v>
+        <v>0.1236519745159494</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.002541223402309531</v>
+        <v>0.01529619046624623</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1236519745159494</v>
+        <v>1.91774005289034</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.01529619046624623</v>
+        <v>2.108880577589689</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.924190454494017</v>
+        <v>3.268868296314734</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.108880577589689</v>
+        <v>7.083267487937823e-17</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.268868296314734</v>
+        <v>984707298.0150635</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>7.083267487937823e-17</v>
+        <v>1.221998598961972e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>984707298.0150635</v>
+        <v>68.68279431026031</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.221998598961972e-07</v>
+        <v>0.0001627132745474806</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>68.68279431026031</v>
+        <v>10.70113000152031</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001627132745474806</v>
+        <v>1.109563405231661</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>10.70113000152031</v>
+        <v>0.01863297774840911</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.109563405231661</v>
+        <v>2.744384823266611</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01863297774840911</v>
+        <v>0.9606377984100894</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.744384823266611</v>
+        <v>1.325645758302635</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9606377984100894</v>
+        <v>62</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.325645758302635</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.3688635851146089</v>
       </c>
     </row>
@@ -4986,72 +4950,66 @@
         <v>3.615548829330063e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.3968021835026671</v>
+        <v>1.124691524519579e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.20350816555588</v>
+        <v>1.676204350162973e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.124691524519579e-06</v>
+        <v>-0.003731291987757137</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.676204350162973e-06</v>
+        <v>0.1230105645548594</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.003731291987757137</v>
+        <v>0.01514511438278777</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1230105645548594</v>
+        <v>1.914456919904068</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01514511438278777</v>
+        <v>2.134611984216678</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.922036867071381</v>
+        <v>3.363780031153704</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.134611984216678</v>
+        <v>6.689186621773194e-17</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.363780031153704</v>
+        <v>1038056360.64519</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>6.689186621773194e-17</v>
+        <v>1.158211570629693e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>1038056360.64519</v>
+        <v>72.08006678028154</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.158211570629693e-07</v>
+        <v>0.0001653820601530011</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>72.08006678028154</v>
+        <v>11.14835128471093</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001653820601530011</v>
+        <v>1.083694191175067</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>11.14835128471093</v>
+        <v>0.02055463112805948</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.083694191175067</v>
+        <v>2.633991044276234</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.02055463112805948</v>
+        <v>0.96040721089318</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.633991044276234</v>
+        <v>1.333548026166748</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.96040721089318</v>
+        <v>77</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.333548026166748</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>77</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.3667070664579336</v>
       </c>
     </row>
@@ -5066,72 +5024,66 @@
         <v>3.635045085978808e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.3858605642110799</v>
+        <v>1.132341421435881e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.205903785099578</v>
+        <v>1.674507232869542e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.132341421435881e-06</v>
+        <v>-0.005763398650663298</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.674507232869542e-06</v>
+        <v>0.1215730317049876</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.005763398650663298</v>
+        <v>0.01481210974659702</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1215730317049876</v>
+        <v>1.912901485631982</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01481210974659702</v>
+        <v>2.087969381510819</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.926354275181902</v>
+        <v>3.499324505734823</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.087969381510819</v>
+        <v>6.181018627421259e-17</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.499324505734823</v>
+        <v>1142381248.968311</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>6.181018627421259e-17</v>
+        <v>1.051456895692286e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>1142381248.968311</v>
+        <v>80.66445137558544</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.051456895692286e-07</v>
+        <v>0.0001616292589691048</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>80.66445137558544</v>
+        <v>10.83913913851509</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001616292589691048</v>
+        <v>1.128895477752969</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>10.83913913851509</v>
+        <v>0.01898932660854452</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.128895477752969</v>
+        <v>2.866290051667005</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01898932660854452</v>
+        <v>0.9612940583033108</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.866290051667005</v>
+        <v>1.332668162135419</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9612940583033108</v>
+        <v>90</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.332668162135419</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.4287875930501175</v>
       </c>
     </row>
@@ -5146,72 +5098,66 @@
         <v>3.663233404518839e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.3730498991204795</v>
+        <v>1.140088399957403e-06</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.212711802823583</v>
+        <v>1.671899290516761e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.140088399957403e-06</v>
+        <v>-0.008659541094829729</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.671899290516761e-06</v>
+        <v>0.1187941501439506</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.008659541094829729</v>
+        <v>0.01418477617028675</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1187941501439506</v>
+        <v>1.904797718456838</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.01418477617028675</v>
+        <v>2.0669004942295</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.927520441267809</v>
+        <v>3.810632151228039</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.0669004942295</v>
+        <v>5.212360367097255e-17</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.810632151228039</v>
+        <v>1381212150.497751</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>5.212360367097255e-17</v>
+        <v>8.743711018534417e-08</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>1381212150.497751</v>
+        <v>99.43864877656192</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>8.743711018534417e-08</v>
+        <v>0.0001876368250167374</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>99.43864877656192</v>
+        <v>10.25710040739966</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001876368250167374</v>
+        <v>1.487290587388616</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>10.25710040739966</v>
+        <v>0.01974091549514519</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.487290587388616</v>
+        <v>3.091069755848757</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01974091549514519</v>
+        <v>0.962277295881897</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.091069755848757</v>
+        <v>1.33238668547916</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.962277295881897</v>
+        <v>119</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.33238668547916</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>119</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.6044783114201306</v>
       </c>
     </row>
@@ -5226,72 +5172,66 @@
         <v>3.701205687518128e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.3617749796344569</v>
+        <v>1.147878847485305e-06</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.226705210512229</v>
+        <v>1.668022732106184e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.147878847485305e-06</v>
+        <v>-0.01254623988821643</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.668022732106184e-06</v>
+        <v>0.1138059968198587</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.01254623988821643</v>
+        <v>0.01310497243728831</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1138059968198587</v>
+        <v>1.901056558186209</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.01310497243728831</v>
+        <v>2.02379419372221</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.921338554436708</v>
+        <v>4.604403583630573</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.02379419372221</v>
+        <v>3.570111024533754e-17</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.604403583630573</v>
+        <v>2005772794.511111</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>3.570111024533754e-17</v>
+        <v>6.002845649101748e-08</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>2005772794.511111</v>
+        <v>143.6300114194946</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>6.002845649101748e-08</v>
+        <v>0.0002404900429586971</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>143.6300114194946</v>
+        <v>9.699677329167248</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0002404900429586971</v>
+        <v>1.870601978621658</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.699677329167248</v>
+        <v>0.02262620274404763</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.870601978621658</v>
+        <v>3.262651836185444</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.02262620274404763</v>
+        <v>0.960813176733708</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.262651836185444</v>
+        <v>1.321550569838092</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.960813176733708</v>
+        <v>168</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.321550569838092</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>168</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>1.07474161724547</v>
       </c>
     </row>
@@ -5306,72 +5246,66 @@
         <v>3.747997858512699e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.3582085664437843</v>
+        <v>1.155631046161422e-06</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.247751405342221</v>
+        <v>1.662449229326819e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.155631046161422e-06</v>
+        <v>-0.0174697983305829</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1.662449229326819e-06</v>
+        <v>0.105524424534725</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.0174697983305829</v>
+        <v>0.01143471987012049</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.105524424534725</v>
+        <v>1.90208269414183</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.01143471987012049</v>
+        <v>2.053143439132098</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.923459256524809</v>
+        <v>6.901398322124226</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.053143439132098</v>
+        <v>1.17366515596568e-17</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>6.901398322124226</v>
+        <v>6076127121.978021</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.17366515596568e-17</v>
+        <v>1.979755590432958e-08</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>6076127121.978021</v>
+        <v>433.3092040773909</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.979755590432958e-08</v>
+        <v>0.000139821452256133</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>433.3092040773909</v>
+        <v>9.601007620254885</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.000139821452256133</v>
+        <v>1.451522571502422</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>9.601007620254885</v>
+        <v>0.01288865021089106</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.451522571502422</v>
+        <v>4.091664408363089</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01288865021089106</v>
+        <v>0.9610901785585052</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>4.091664408363089</v>
+        <v>1.319098445648011</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9610901785585052</v>
+        <v>188</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.319098445648011</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>188</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>2.481526545826639</v>
       </c>
     </row>
@@ -5386,72 +5320,66 @@
         <v>3.799016241331363e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.3685437607252847</v>
+        <v>1.163262992284448e-06</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.268349055667385</v>
+        <v>1.654907026055025e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.163262992284448e-06</v>
+        <v>-0.02234120226368078</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1.654907026055025e-06</v>
+        <v>0.09630767853262813</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.02234120226368078</v>
+        <v>0.009769816406597227</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.09630767853262813</v>
+        <v>1.907994292765835</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.009769816406597227</v>
+        <v>2.791423904467776</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.941732042744434</v>
+        <v>5.37795123232158</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.791423904467776</v>
+        <v>3.672070505931065e-18</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>5.37795123232158</v>
+        <v>18621355979.51799</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>3.672070505931065e-18</v>
+        <v>6.455134259842742e-09</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>18621355979.51799</v>
+        <v>1273.308435627467</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>6.455134259842742e-09</v>
+        <v>0.0001209274977829026</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>1273.308435627467</v>
+        <v>11.0031921699391</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001209274977829026</v>
+        <v>1.096411598386857</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>11.0031921699391</v>
+        <v>0.01464072092868736</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.096411598386857</v>
+        <v>4.159493480712688</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01464072092868736</v>
+        <v>0.9611276669954999</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>4.159493480712688</v>
+        <v>1.075185201661859</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9611276669954999</v>
+        <v>188</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.075185201661859</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>188</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>3.217646095889984</v>
       </c>
     </row>
@@ -5466,72 +5394,66 @@
         <v>3.848181838871708e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.3933733722754881</v>
+        <v>1.170713446813147e-06</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.278108373141513</v>
+        <v>1.64559301126387e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.170713446813147e-06</v>
+        <v>-0.02611311458266942</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1.64559301126387e-06</v>
+        <v>0.08947539377498395</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.02611311458266942</v>
+        <v>0.008685493633928953</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.08947539377498395</v>
+        <v>1.914532476339776</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.008685493633928953</v>
+        <v>2.636231028787275</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.951734040157467</v>
+        <v>5.840537714993529</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>2.636231028787275</v>
+        <v>3.246955510887957e-18</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>5.840537714993529</v>
+        <v>21021439581.96531</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>3.246955510887957e-18</v>
+        <v>5.701493698215731e-09</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>21021439581.96531</v>
+        <v>1434.832634273278</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>5.701493698215731e-09</v>
+        <v>0.000137912163056457</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>1434.832634273278</v>
+        <v>9.990970745317099</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.000137912163056457</v>
+        <v>1.287957890167673</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>9.990970745317099</v>
+        <v>0.01376632266838919</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.287957890167673</v>
+        <v>4.18812927165573</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01376632266838919</v>
+        <v>0.9608220609297794</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>4.18812927165573</v>
+        <v>0.9645719885112911</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9608220609297794</v>
+        <v>183</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>0.9645719885112911</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>183</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>3.202779812500428</v>
       </c>
     </row>
@@ -5546,72 +5468,66 @@
         <v>3.89199145887105e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.4291912761046283</v>
+        <v>1.177927425346766e-06</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.27226536670406</v>
+        <v>1.634928733026351e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.177927425346766e-06</v>
+        <v>-0.02883652517130079</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1.634928733026351e-06</v>
+        <v>0.0849977412810534</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.02883652517130079</v>
+        <v>0.008054901130655301</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.0849977412810534</v>
+        <v>1.912466664015083</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.008054901130655301</v>
+        <v>3.219728519925612</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.951963354678874</v>
+        <v>5.302755093301893</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>3.219728519925612</v>
+        <v>2.862132140828313e-18</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>5.302755093301893</v>
+        <v>23401078815.50305</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>2.862132140828313e-18</v>
+        <v>5.110743067298034e-09</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>23401078815.50305</v>
+        <v>1567.333583309207</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>5.110743067298034e-09</v>
+        <v>0.0001466433150913007</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>1567.333583309207</v>
+        <v>9.653643740554413</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001466433150913007</v>
+        <v>1.394000196500208</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>9.653643740554413</v>
+        <v>0.01366610662929892</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.394000196500208</v>
+        <v>4.217116096184572</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01366610662929892</v>
+        <v>0.960215575811404</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>4.217116096184572</v>
+        <v>0.9695555595866208</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.960215575811404</v>
+        <v>183</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>0.9695555595866208</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>183</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>3.414438890455392</v>
       </c>
     </row>
@@ -5626,72 +5542,66 @@
         <v>3.92886552227514e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.4731736096039535</v>
+        <v>1.184870374954899e-06</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.249427602970959</v>
+        <v>1.623195086237544e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.184870374954899e-06</v>
+        <v>-0.03110936542472057</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1.623195086237544e-06</v>
+        <v>0.08148185266430319</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.03110936542472057</v>
+        <v>0.007606064278378654</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.08148185266430319</v>
+        <v>1.909180652581333</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.007606064278378654</v>
+        <v>2.933262255373409</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.955048887822744</v>
+        <v>5.181393490444632</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>2.933262255373409</v>
+        <v>2.997779393208291e-18</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>5.181393490444632</v>
+        <v>21687675235.99368</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>2.997779393208291e-18</v>
+        <v>5.513264488123643e-09</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>21687675235.99368</v>
+        <v>1410.021297347276</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>5.513264488123643e-09</v>
+        <v>0.0001321945367684643</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>1410.021297347276</v>
+        <v>10.04511505510164</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001321945367684643</v>
+        <v>1.251723761657511</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>10.04511505510164</v>
+        <v>0.01333900201761127</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.251723761657511</v>
+        <v>4.269639277205037</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01333900201761127</v>
+        <v>0.9608148597735986</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>4.269639277205037</v>
+        <v>0.9343037416211972</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9608148597735986</v>
+        <v>163</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>0.9343037416211972</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>163</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>3.569119971595735</v>
       </c>
     </row>
@@ -5706,72 +5616,66 @@
         <v>3.957202699903083e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.5241185304165462</v>
+        <v>1.191481414998785e-06</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.207670909729853</v>
+        <v>1.61047348491981e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.191481414998785e-06</v>
+        <v>-0.03341968145148413</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>1.61047348491981e-06</v>
+        <v>0.07798021609083844</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.03341968145148413</v>
+        <v>0.007196565682908104</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.07798021609083844</v>
+        <v>1.907503721122968</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.007196565682908104</v>
+        <v>2.992753773582708</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.953823073491457</v>
+        <v>5.436896542545615</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>2.992753773582708</v>
+        <v>2.81163301597672e-18</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>5.436896542545615</v>
+        <v>23207842458.17792</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>2.81163301597672e-18</v>
+        <v>5.1490970709004e-09</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>23207842458.17792</v>
+        <v>1514.35665275176</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>5.1490970709004e-09</v>
+        <v>0.0001136047825237278</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>1514.35665275176</v>
+        <v>11.01632510470101</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001136047825237278</v>
+        <v>1.080238114850663</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>11.01632510470101</v>
+        <v>0.01378701038139617</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.080238114850663</v>
+        <v>4.322491406430546</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01378701038139617</v>
+        <v>0.9609962424711984</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>4.322491406430546</v>
+        <v>0.893401262100454</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9609962424711984</v>
+        <v>163</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>0.893401262100454</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>163</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>3.914441523781792</v>
       </c>
     </row>
@@ -5786,72 +5690,66 @@
         <v>3.974205677605371e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.5818008791864244</v>
+        <v>1.197677494521813e-06</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.143212304567448</v>
+        <v>1.596682615833937e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.197677494521813e-06</v>
+        <v>-0.03619255437201752</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1.596682615833937e-06</v>
+        <v>0.07352070057895188</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.03619255437201752</v>
+        <v>0.006713266643184694</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.07352070057895188</v>
+        <v>1.907570368056481</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.006713266643184694</v>
+        <v>3.159559782327668</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.950712594670231</v>
+        <v>5.29954200572933</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>3.159559782327668</v>
+        <v>3.258501492498047e-18</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>5.29954200572933</v>
+        <v>20350819761.01476</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>3.258501492498047e-18</v>
+        <v>5.858873271610652e-09</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>20350819761.01476</v>
+        <v>1349.527504051108</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>5.858873271610652e-09</v>
+        <v>0.0001043102272844418</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>1349.527504051108</v>
+        <v>10.72344199026374</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001043102272844418</v>
+        <v>1.093432615242444</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>10.72344199026374</v>
+        <v>0.01199486336478595</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.093432615242444</v>
+        <v>4.587950134374547</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01199486336478595</v>
+        <v>0.9602891617453798</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>4.587950134374547</v>
+        <v>0.8775708964272745</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9602891617453798</v>
+        <v>142</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>0.8775708964272745</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>142</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>4.2111632318356</v>
       </c>
     </row>
@@ -5866,72 +5764,66 @@
         <v>3.97480568198138e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.6460111863365166</v>
+        <v>1.203327665738392e-06</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.050677413260025</v>
+        <v>1.58159965407317e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.203327665738392e-06</v>
+        <v>-0.03981054081539931</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>1.58159965407317e-06</v>
+        <v>0.0666299898149981</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.03981054081539931</v>
+        <v>0.006021187017736161</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.0666299898149981</v>
+        <v>1.90555087775875</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.006021187017736161</v>
+        <v>2.883297023974174</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.952234408229903</v>
+        <v>5.509661363854872</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>2.883297023974174</v>
+        <v>4.586424380099843e-18</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>5.509661363854872</v>
+        <v>14743366290.91166</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>4.586424380099843e-18</v>
+        <v>8.087787106212571e-09</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>14743366290.91166</v>
+        <v>996.9366183758539</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>8.087787106212571e-09</v>
+        <v>0.0001076135768007807</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>996.9366183758539</v>
+        <v>10.40237894019574</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001076135768007807</v>
+        <v>1.24811613039103</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>10.40237894019574</v>
+        <v>0.01164481000607597</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.24811613039103</v>
+        <v>4.905812906657401</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01164481000607597</v>
+        <v>0.9602625895291662</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>4.905812906657401</v>
+        <v>0.909303400604574</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9602625895291662</v>
+        <v>128</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>0.909303400604574</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>128</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>4.80568680080817</v>
       </c>
     </row>
@@ -5946,72 +5838,66 @@
         <v>3.950964250557533e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.7146327059510377</v>
+        <v>1.208304516500452e-06</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-0.9273282418239406</v>
+        <v>1.564927981360378e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1.208304516500452e-06</v>
+        <v>-0.04432334025052108</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>1.564927981360378e-06</v>
+        <v>0.05607484613389952</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.04432334025052108</v>
+        <v>0.005105477544700328</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.05607484613389952</v>
+        <v>1.909235213833538</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.005105477544700328</v>
+        <v>2.772489794174608</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.957575290529184</v>
+        <v>5.436957820196803</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>2.772489794174608</v>
+        <v>6.346242112327986e-18</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>5.436957820196803</v>
+        <v>11190892114.37593</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>6.346242112327986e-18</v>
+        <v>1.070958010522244e-08</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>11190892114.37593</v>
+        <v>794.7783980343692</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>1.070958010522244e-08</v>
+        <v>0.0001260100479079747</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>794.7783980343692</v>
+        <v>11.55045324798169</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001260100479079747</v>
+        <v>1.223366891150048</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>11.55045324798169</v>
+        <v>0.0168113747707077</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.223366891150048</v>
+        <v>4.893629316898318</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.0168113747707077</v>
+        <v>0.961421891413227</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>4.893629316898318</v>
+        <v>0.8997838953394378</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.961421891413227</v>
+        <v>128</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>0.8997838953394378</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>128</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>5.354379894194133</v>
       </c>
     </row>
@@ -6026,72 +5912,66 @@
         <v>3.89625344436889e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.7820101978945156</v>
+        <v>1.212477929211682e-06</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-0.7829443915014638</v>
+        <v>1.546654665375344e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1.212477929211682e-06</v>
+        <v>-0.04859447589025992</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>1.546654665375344e-06</v>
+        <v>0.04650502330612755</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.04859447589025992</v>
+        <v>0.00452264754060799</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.04650502330612755</v>
+        <v>1.912819928481565</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.00452264754060799</v>
+        <v>2.851489185918957</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.957705161384635</v>
+        <v>4.820619736269061</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>2.851489185918957</v>
+        <v>9.347366936292588e-18</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.820619736269061</v>
+        <v>7599428358.813875</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>9.347366936292588e-18</v>
+        <v>1.578037390631193e-08</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>7599428358.813875</v>
+        <v>539.8226985279094</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>1.578037390631193e-08</v>
+        <v>0.0001481546249201631</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>539.8226985279094</v>
+        <v>13.25641097542606</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001481546249201631</v>
+        <v>1.046013790626695</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>13.25641097542606</v>
+        <v>0.02603557254177091</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.046013790626695</v>
+        <v>4.448405109469347</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.02603557254177091</v>
+        <v>0.960606602137369</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>4.448405109469347</v>
+        <v>0.9264533995819659</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.960606602137369</v>
+        <v>128</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>0.9264533995819659</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>128</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>5.147544821424244</v>
       </c>
     </row>
@@ -6106,72 +5986,66 @@
         <v>3.812272310558649e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.8428795896786154</v>
+        <v>1.215618984627123e-06</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-0.6353030129539246</v>
+        <v>1.527241439669147e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1.215618984627123e-06</v>
+        <v>-0.05191300032770476</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>1.527241439669147e-06</v>
+        <v>0.04188980325728076</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.05191300032770476</v>
+        <v>0.004449556746354635</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.04188980325728076</v>
+        <v>1.906701017765933</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.004449556746354635</v>
+        <v>2.480611452078446</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.955388175246503</v>
+        <v>4.571808277300411</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>2.480611452078446</v>
+        <v>1.417560786022611e-17</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.571808277300411</v>
+        <v>4954593733.997151</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>1.417560786022611e-17</v>
+        <v>2.416586615118834e-08</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>4954593733.997151</v>
+        <v>347.9828085548269</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>2.416586615118834e-08</v>
+        <v>0.0001715131631194594</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>347.9828085548269</v>
+        <v>13.94258417956808</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001715131631194594</v>
+        <v>0.9920830191688809</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>13.94258417956808</v>
+        <v>0.03334141344635543</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>0.9920830191688809</v>
+        <v>3.944967225149269</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.03334141344635543</v>
+        <v>0.9598615358482495</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>3.944967225149269</v>
+        <v>0.9348894524298571</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9598615358482495</v>
+        <v>128</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>0.9348894524298571</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>128</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>4.353913963195867</v>
       </c>
     </row>
@@ -6186,72 +6060,66 @@
         <v>3.704240080878846e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.8948569577650629</v>
+        <v>1.217726314685221e-06</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-0.4979414008384304</v>
+        <v>1.507203121664105e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1.217726314685221e-06</v>
+        <v>-0.05459446824860726</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>1.507203121664105e-06</v>
+        <v>0.04074652631294077</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.05459446824860726</v>
+        <v>0.004641129593317851</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.04074652631294077</v>
+        <v>1.908626085322305</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.004641129593317851</v>
+        <v>2.298671086074996</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.950331657027997</v>
+        <v>4.480546887220865</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>2.298671086074996</v>
+        <v>1.475895665178154e-17</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.480546887220865</v>
+        <v>4766340739.759598</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>1.475895665178154e-17</v>
+        <v>2.51329632996442e-08</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>4766340739.759598</v>
+        <v>335.2940369519331</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>2.51329632996442e-08</v>
+        <v>0.0001785968683254707</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>335.2940369519331</v>
+        <v>14.71649195381529</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001785968683254707</v>
+        <v>0.9373152463556887</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>14.71649195381529</v>
+        <v>0.03867964094437516</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>0.9373152463556887</v>
+        <v>3.74297992384059</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.03867964094437516</v>
+        <v>0.9607453262533929</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>3.74297992384059</v>
+        <v>1.019119352419607</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9607453262533929</v>
+        <v>113</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.019119352419607</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>113</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>4.170553526157526</v>
       </c>
     </row>
@@ -6266,72 +6134,66 @@
         <v>3.576845047477703e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.9364711623123545</v>
+        <v>1.217396765775671e-06</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-0.3819397808606517</v>
+        <v>1.486911386414646e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1.217396765775671e-06</v>
+        <v>-0.05672051401932356</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>1.486911386414646e-06</v>
+        <v>0.04187607146335159</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.05672051401932356</v>
+        <v>0.004971190833516764</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.04187607146335159</v>
+        <v>1.907573807106837</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.004971190833516764</v>
+        <v>2.376482728118446</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.944258417761443</v>
+        <v>4.68980479750223</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>2.376482728118446</v>
+        <v>1.311445590148304e-17</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.68980479750223</v>
+        <v>5265844069.588122</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>1.311445590148304e-17</v>
+        <v>2.270725576772864e-08</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>5265844069.588122</v>
+        <v>363.6522396611368</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>2.270725576772864e-08</v>
+        <v>0.0001688887462068525</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>363.6522396611368</v>
+        <v>12.4655412670126</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001688887462068525</v>
+        <v>1.127462062760933</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>12.4655412670126</v>
+        <v>0.02624357482878768</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.127462062760933</v>
+        <v>3.865319789103342</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.02624357482878768</v>
+        <v>0.9591126960328001</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>3.865319789103342</v>
+        <v>1.119244268021456</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9591126960328001</v>
+        <v>100</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.119244268021456</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>3.207145721816386</v>
       </c>
     </row>
@@ -6346,72 +6208,66 @@
         <v>3.436896180068083e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.9688450778822778</v>
+        <v>1.19913326500338e-06</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-0.2893349278041883</v>
+        <v>1.466747059157021e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1.19913326500338e-06</v>
+        <v>-0.05814812253189278</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>1.466747059157021e-06</v>
+        <v>0.04408726855640839</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.05814812253189278</v>
+        <v>0.005324880348931918</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.04408726855640839</v>
+        <v>1.913295173669169</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.005324880348931918</v>
+        <v>2.316372099453633</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.945687268045744</v>
+        <v>4.507272206541947</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>2.316372099453633</v>
+        <v>1.180783062832588e-17</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.507272206541947</v>
+        <v>5623092944.968142</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>1.180783062832588e-17</v>
+        <v>2.120847624404685e-08</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>5623092944.968142</v>
+        <v>373.3538543611177</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>2.120847624404685e-08</v>
+        <v>0.0001521401167305103</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>373.3538543611177</v>
+        <v>9.576246374449973</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001521401167305103</v>
+        <v>1.438475094512144</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>9.576246374449973</v>
+        <v>0.0139519325168331</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.438475094512144</v>
+        <v>3.747482734773357</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.0139519325168331</v>
+        <v>0.9579792459535232</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>3.747482734773357</v>
+        <v>1.14930832020257</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9579792459535232</v>
+        <v>79</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.14930832020257</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>79</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>1.942533408534721</v>
       </c>
     </row>
@@ -6426,72 +6282,66 @@
         <v>3.29101229403225e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.9947963975473724</v>
+        <v>1.165935448151946e-06</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-0.2140380897574166</v>
+        <v>1.447023050374078e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1.165935448151946e-06</v>
+        <v>-0.05904657534349137</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>1.447023050374078e-06</v>
+        <v>0.04624931957278596</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.05904657534349137</v>
+        <v>0.005625046638563803</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.04624931957278596</v>
+        <v>1.909395359191255</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.005625046638563803</v>
+        <v>2.348990535107069</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.940520396787442</v>
+        <v>4.265134580059683</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>2.348990535107069</v>
+        <v>1.103247662281681e-17</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4.265134580059683</v>
+        <v>5979662793.620598</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>1.103247662281681e-17</v>
+        <v>1.992320344756591e-08</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>5979662793.620598</v>
+        <v>394.4812844279466</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>1.992320344756591e-08</v>
+        <v>0.0001248587749190687</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>394.4812844279466</v>
+        <v>8.658925736820443</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001248587749190687</v>
+        <v>1.253835466734177</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>8.658925736820443</v>
+        <v>0.009361535732296465</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.253835466734177</v>
+        <v>3.614387625816724</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.009361535732296465</v>
+        <v>0.9595283110623098</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>3.614387625816724</v>
+        <v>1.181858429874704</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9595283110623098</v>
+        <v>30</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.181858429874704</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>1.416669617275029</v>
       </c>
     </row>
@@ -6868,7 +6718,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.390081313784048</v>
+        <v>1.418503058454656</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.975283485424445</v>
@@ -6957,7 +6807,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.365602764435742</v>
+        <v>1.388034356586379</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.987467128855912</v>
@@ -7046,7 +6896,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.328574861184663</v>
+        <v>1.343137619866488</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.014078572133066</v>
@@ -7135,7 +6985,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.340564166120928</v>
+        <v>1.35827110430935</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.982447750367143</v>
@@ -7224,7 +7074,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.339837343030526</v>
+        <v>1.356323271266587</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.964243928642063</v>
@@ -7313,7 +7163,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.3342555009115</v>
+        <v>1.352625405433426</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.969947727707765</v>
@@ -7402,7 +7252,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.369745192459811</v>
+        <v>1.390036388366912</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.902404331144329</v>
@@ -7491,7 +7341,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.397246427537343</v>
+        <v>1.420276063051869</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.882066521313032</v>
@@ -7580,7 +7430,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.407024371092456</v>
+        <v>1.430336516691484</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.911020186641627</v>
@@ -7669,7 +7519,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.382629472093003</v>
+        <v>1.401692574463842</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.930267361718855</v>
@@ -7758,7 +7608,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.375714260815831</v>
+        <v>1.395007904870671</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.931669410537161</v>
@@ -7847,7 +7697,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.367034446221551</v>
+        <v>1.38464632300882</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.926509702965688</v>
@@ -7936,7 +7786,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.366814439931816</v>
+        <v>1.384192848926016</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.914719125024661</v>
@@ -8025,7 +7875,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.345212803200573</v>
+        <v>1.358984949589264</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.013335797144059</v>
@@ -8114,7 +7964,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.349799825017832</v>
+        <v>1.361982518533492</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.929405782338986</v>
@@ -8203,7 +8053,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.38954554507121</v>
+        <v>1.400525223562433</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.745807838165174</v>
@@ -8292,7 +8142,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.471712619507068</v>
+        <v>1.491098102847634</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.770468123093718</v>
@@ -8381,7 +8231,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.544382988657804</v>
+        <v>1.564739826820599</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.990781990998895</v>
@@ -8470,7 +8320,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.546035284119261</v>
+        <v>1.564408142194955</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.987532348384062</v>
@@ -8559,7 +8409,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.56788094571684</v>
+        <v>1.578525009814356</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.924082306195216</v>
@@ -8648,7 +8498,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.575472039879863</v>
+        <v>1.586723829888116</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.999907083045724</v>
@@ -8737,7 +8587,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.571764688583241</v>
+        <v>1.582795285860236</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.02705901394907</v>
@@ -8826,7 +8676,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.563501105006227</v>
+        <v>1.574089908619767</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.963274573178743</v>
@@ -8915,7 +8765,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.537607415816654</v>
+        <v>1.550483625491195</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.988461645668306</v>
@@ -9004,7 +8854,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.607527762338185</v>
+        <v>1.617744300651109</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.918518510872588</v>
@@ -9093,7 +8943,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.618187350565329</v>
+        <v>1.629380900587298</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.039565646770816</v>
@@ -9182,7 +9032,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.640832178250952</v>
+        <v>1.651046498624459</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.005083355069124</v>
@@ -9271,7 +9121,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.626863339657288</v>
+        <v>1.639141232808977</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.974092577357785</v>
@@ -9360,7 +9210,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.742561555048564</v>
+        <v>1.743110527771127</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.449885901783027</v>
@@ -9449,7 +9299,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.696974502098923</v>
+        <v>1.708088625590833</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.564577476492088</v>
@@ -9538,7 +9388,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.683318868523035</v>
+        <v>1.695145365550443</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.669904905774379</v>
@@ -9627,7 +9477,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.693374548660294</v>
+        <v>1.704165873411777</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.568366422492161</v>
@@ -9716,7 +9566,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.701884753051456</v>
+        <v>1.717264025375087</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.582029957435017</v>
@@ -9805,7 +9655,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.70973866985274</v>
+        <v>1.726834849087361</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.688674643267585</v>
@@ -9894,7 +9744,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.714874528629813</v>
+        <v>1.735613208743067</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.55468846437699</v>
@@ -9983,7 +9833,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.666030927160467</v>
+        <v>1.699208663957029</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.499457646917941</v>
@@ -10072,7 +9922,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.668083312858611</v>
+        <v>1.701181775008364</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.545291575766755</v>
@@ -10161,7 +10011,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.702109385278507</v>
+        <v>1.728523085207716</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.516205746529708</v>
@@ -10250,7 +10100,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.727488365017339</v>
+        <v>1.754571605577546</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.529115881390779</v>
@@ -10339,7 +10189,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.732237661650555</v>
+        <v>1.759843144574306</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.522053143447554</v>
@@ -10428,7 +10278,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.724933021176342</v>
+        <v>1.754293605392355</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.630699972274056</v>
@@ -10517,7 +10367,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.693574196895673</v>
+        <v>1.723018184116606</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.585671084547483</v>
@@ -10606,7 +10456,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.710456789749464</v>
+        <v>1.714912954896809</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.510536072000582</v>
@@ -10695,7 +10545,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.651129776443759</v>
+        <v>1.679845433180021</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.515344885200024</v>
@@ -10784,7 +10634,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.687698783055705</v>
+        <v>1.713807036701961</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.523990397028842</v>
@@ -10873,7 +10723,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.691226833709753</v>
+        <v>1.712984132845258</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.54099235456526</v>
@@ -10962,7 +10812,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.68984776084866</v>
+        <v>1.711709118032459</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.496809368196041</v>
@@ -11051,7 +10901,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.678722432601028</v>
+        <v>1.696167447240108</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.526343027620016</v>
@@ -11140,7 +10990,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.672586517150724</v>
+        <v>1.689998491583985</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.50670401773958</v>
@@ -11229,7 +11079,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.697058777791928</v>
+        <v>1.705239723278277</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.130039646433529</v>
@@ -11318,7 +11168,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.713514016529582</v>
+        <v>1.718127351246374</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.458218101248661</v>
@@ -11407,7 +11257,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.713035774352146</v>
+        <v>1.717391796045567</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.480015556584451</v>
@@ -11496,7 +11346,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.706763179204805</v>
+        <v>1.71091542311409</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.489694570880872</v>
@@ -11585,7 +11435,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.703079929279485</v>
+        <v>1.706046386911863</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.386826336663096</v>
@@ -11674,7 +11524,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.700963380651625</v>
+        <v>1.704197293932902</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.389438981593146</v>
@@ -11763,7 +11613,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.708380033061567</v>
+        <v>1.706856303923824</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.236455884975117</v>
@@ -11852,7 +11702,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.633009393800332</v>
+        <v>1.646330421504415</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.126046026356068</v>
@@ -11941,7 +11791,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.636080688083428</v>
+        <v>1.649893539440306</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.888727398953152</v>
@@ -12030,7 +11880,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.64854681251572</v>
+        <v>1.668626784918019</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.036963212540496</v>
@@ -12119,7 +11969,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.575768525174727</v>
+        <v>1.59999800748922</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.098934976712636</v>
@@ -12208,7 +12058,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.545165494677303</v>
+        <v>1.576247988589748</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.104771260082431</v>
@@ -12297,7 +12147,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.546098975375116</v>
+        <v>1.578794550240172</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.0787921892082</v>
@@ -12386,7 +12236,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.550345414248338</v>
+        <v>1.584346323991386</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.103595116851646</v>
@@ -12475,7 +12325,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.555089743330476</v>
+        <v>1.590204078073314</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.115309696519182</v>
@@ -12564,7 +12414,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.537026087157134</v>
+        <v>1.569835080342307</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.130416725183867</v>
@@ -12653,7 +12503,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.534145191238486</v>
+        <v>1.567360784931836</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.100367606474213</v>
@@ -12742,7 +12592,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.532204234927647</v>
+        <v>1.567333435749602</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.131324272713423</v>
@@ -12831,7 +12681,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.528879263258324</v>
+        <v>1.563962736791309</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.09993927721214</v>
@@ -13117,7 +12967,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.347374841401114</v>
+        <v>1.356769627213816</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.744306967169271</v>
@@ -13206,7 +13056,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.313191173697561</v>
+        <v>1.319913940083263</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.798051444710468</v>
@@ -13295,7 +13145,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.227798366204204</v>
+        <v>1.225581296491017</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.533323639438541</v>
@@ -13384,7 +13234,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.218792158539773</v>
+        <v>1.217335374557619</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.527680477465284</v>
@@ -13473,7 +13323,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.218857046357577</v>
+        <v>1.219688510668361</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.515528026822193</v>
@@ -13562,7 +13412,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.215924580159176</v>
+        <v>1.216182621727899</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.507216120102042</v>
@@ -13651,7 +13501,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.224556414441743</v>
+        <v>1.224615932879178</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.490844085259063</v>
@@ -13740,7 +13590,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.232234672102597</v>
+        <v>1.233520912186027</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.4697837284958</v>
@@ -13829,7 +13679,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.234371164733792</v>
+        <v>1.23439733648508</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.474252768744273</v>
@@ -13918,7 +13768,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.226632840684131</v>
+        <v>1.2245654677464</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.493612415447147</v>
@@ -14007,7 +13857,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.223686755359843</v>
+        <v>1.224070923689585</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.495093928287559</v>
@@ -14096,7 +13946,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.22350874191401</v>
+        <v>1.223492758304902</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.496850405094329</v>
@@ -14185,7 +14035,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.22257064859002</v>
+        <v>1.222287855922319</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.49781960978551</v>
@@ -14274,7 +14124,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.213413915349755</v>
+        <v>1.212713675908667</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.515597029461978</v>
@@ -14363,7 +14213,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.217020924976854</v>
+        <v>1.214651107309157</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.51334718474757</v>
@@ -14452,7 +14302,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.24696823180055</v>
+        <v>1.244489948559346</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.45944127990379</v>
@@ -14541,7 +14391,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.269736827411412</v>
+        <v>1.272832390756431</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.390698091151537</v>
@@ -14630,7 +14480,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.442793303423373</v>
+        <v>1.450294220234117</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.773450663903626</v>
@@ -14719,7 +14569,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.451280929965224</v>
+        <v>1.459558165478012</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.799158879604488</v>
@@ -14808,7 +14658,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.447306318675428</v>
+        <v>1.454291584785987</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.797830245491929</v>
@@ -14897,7 +14747,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.446852363639033</v>
+        <v>1.449821425956889</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.798196377604258</v>
@@ -14986,7 +14836,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.447220984898628</v>
+        <v>1.450280793132613</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.808916029456978</v>
@@ -15075,7 +14925,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.446338921602733</v>
+        <v>1.450877924292127</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.794563317440877</v>
@@ -15164,7 +15014,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.446351316721421</v>
+        <v>1.45351994358235</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.787817196661461</v>
@@ -15253,7 +15103,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.529913261209861</v>
+        <v>1.536314942172594</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.727983615190046</v>
@@ -15342,7 +15192,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.53991705964837</v>
+        <v>1.542649897965766</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.805988938789152</v>
@@ -15431,7 +15281,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.542108028810368</v>
+        <v>1.546978303592789</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.788670867946571</v>
@@ -15520,7 +15370,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.556193227223422</v>
+        <v>1.559725410086522</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.76811866267869</v>
@@ -15609,7 +15459,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.696268126082766</v>
+        <v>1.684276078906343</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.986414953420448</v>
@@ -15698,7 +15548,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.705357742795938</v>
+        <v>1.693513459840315</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.062096126332437</v>
@@ -15787,7 +15637,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.700058478835239</v>
+        <v>1.693443849518991</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.440726930147739</v>
@@ -15876,7 +15726,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.726720556991693</v>
+        <v>1.717240920248099</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.095274374308976</v>
@@ -15965,7 +15815,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.727237862575447</v>
+        <v>1.716047742418038</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.852240185984964</v>
@@ -16054,7 +15904,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.734045856137402</v>
+        <v>1.720636827442606</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.394024495600853</v>
@@ -16143,7 +15993,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.727911307591613</v>
+        <v>1.71355725821594</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.769754699152112</v>
@@ -16232,7 +16082,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.728310687602426</v>
+        <v>1.71665380270154</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.826727588102822</v>
@@ -16321,7 +16171,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.734125940591166</v>
+        <v>1.723209335486161</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.863414698508749</v>
@@ -16410,7 +16260,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.745307782201851</v>
+        <v>1.729126350098058</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.716462050707536</v>
@@ -16499,7 +16349,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.74677170908379</v>
+        <v>1.731943080815923</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.919706999634931</v>
@@ -16588,7 +16438,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.754747494115672</v>
+        <v>1.735814824479862</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.837690273590226</v>
@@ -16677,7 +16527,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.750165220791775</v>
+        <v>1.729822369705077</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.084957228818936</v>
@@ -16766,7 +16616,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.753599871947029</v>
+        <v>1.72569576113939</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.626304892213708</v>
@@ -16855,7 +16705,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.719378292241968</v>
+        <v>1.674767758405546</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.274104754609571</v>
@@ -16944,7 +16794,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.659323183874674</v>
+        <v>1.648427391832667</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.253284016372293</v>
@@ -17033,7 +16883,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.647528331722404</v>
+        <v>1.639413625259398</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.309972742481234</v>
@@ -17122,7 +16972,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.64697447650988</v>
+        <v>1.637054944798007</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.325350709326257</v>
@@ -17211,7 +17061,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.644093399495179</v>
+        <v>1.630733611366263</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.331212417297898</v>
@@ -17300,7 +17150,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.648730116421347</v>
+        <v>1.629991779047497</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.321729308761085</v>
@@ -17389,7 +17239,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.637589899814572</v>
+        <v>1.621164575576023</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.304873549770968</v>
@@ -17478,7 +17328,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.634838556955995</v>
+        <v>1.620324632140765</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.333385102451115</v>
@@ -17567,7 +17417,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.634621861282486</v>
+        <v>1.616887118697486</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.321129055494454</v>
@@ -17656,7 +17506,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.627105075302574</v>
+        <v>1.605111958667596</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.216714484909236</v>
@@ -17745,7 +17595,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.621206018165597</v>
+        <v>1.596382430714616</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.30058233862636</v>
@@ -17834,7 +17684,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.608219378548326</v>
+        <v>1.585556982358242</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.27216738355792</v>
@@ -17923,7 +17773,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.606130597621349</v>
+        <v>1.587044899905297</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.299502487716866</v>
@@ -18012,7 +17862,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.604863584418812</v>
+        <v>1.587309636519421</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.272343936132603</v>
@@ -18101,7 +17951,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.512439939184351</v>
+        <v>1.507525981179867</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.8752153552652</v>
@@ -18190,7 +18040,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.532456224374516</v>
+        <v>1.530442228535421</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.759845322076275</v>
@@ -18279,7 +18129,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.55046733295848</v>
+        <v>1.542208242588513</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.846853644014525</v>
@@ -18368,7 +18218,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.476451242068659</v>
+        <v>1.475808340459535</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.863037746714748</v>
@@ -18457,7 +18307,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.469028706177762</v>
+        <v>1.468141585823425</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.860988336868936</v>
@@ -18546,7 +18396,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.464987739152883</v>
+        <v>1.467695230324806</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.872192841596897</v>
@@ -18635,7 +18485,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.467976793943256</v>
+        <v>1.470808031880067</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.874700682115799</v>
@@ -18724,7 +18574,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.475234014032302</v>
+        <v>1.47909867900959</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.880087869769585</v>
@@ -18813,7 +18663,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.48032321465737</v>
+        <v>1.48544717483993</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.882970720527209</v>
@@ -18902,7 +18752,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.474906513759497</v>
+        <v>1.480026893184679</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.861757315199031</v>
@@ -18991,7 +18841,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.476616547474432</v>
+        <v>1.483621178875513</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.869143896662963</v>
@@ -19080,7 +18930,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.471367850155211</v>
+        <v>1.480279662488395</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.865851713376292</v>
@@ -19366,7 +19216,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.453455297583448</v>
+        <v>1.461493602832697</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.849785550612203</v>
@@ -19455,7 +19305,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.38946859136732</v>
+        <v>1.40021561501608</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.895387058968715</v>
@@ -19544,7 +19394,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.337348682565715</v>
+        <v>1.343033089167976</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.908869417804814</v>
@@ -19633,7 +19483,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.332684510467305</v>
+        <v>1.338505588129953</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.896710142463534</v>
@@ -19722,7 +19572,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.318304062210945</v>
+        <v>1.321884398131158</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.85086941496748</v>
@@ -19811,7 +19661,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.313671722362843</v>
+        <v>1.314150881674151</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.864448149007503</v>
@@ -19900,7 +19750,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.336502706289581</v>
+        <v>1.339454238665464</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.870257327297739</v>
@@ -19989,7 +19839,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.35344399862057</v>
+        <v>1.356791762935482</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.785119092763829</v>
@@ -20078,7 +19928,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.357495409427316</v>
+        <v>1.361431309373439</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.81917698346992</v>
@@ -20167,7 +20017,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.336082172239598</v>
+        <v>1.336746331224543</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.841529716138964</v>
@@ -20256,7 +20106,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.32687384879531</v>
+        <v>1.329135566755853</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.831207690541411</v>
@@ -20345,7 +20195,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.326606555400622</v>
+        <v>1.328128462622494</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.833817996337197</v>
@@ -20434,7 +20284,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.320570598826706</v>
+        <v>1.321504551214832</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.837166558717593</v>
@@ -20523,7 +20373,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.301352759819687</v>
+        <v>1.301667160956728</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.861909781843295</v>
@@ -20612,7 +20462,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.292701481056532</v>
+        <v>1.291537143582611</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.848446480482198</v>
@@ -20701,7 +20551,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.346381495021717</v>
+        <v>1.33901966945681</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.725444258361455</v>
@@ -20790,7 +20640,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.429981485637444</v>
+        <v>1.422317163038123</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.684789195847438</v>
@@ -20879,7 +20729,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.511475351327614</v>
+        <v>1.5025154865585</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.919159106993554</v>
@@ -20968,7 +20818,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.507882086909282</v>
+        <v>1.499866869351122</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.914460446422723</v>
@@ -21057,7 +20907,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.507682568862752</v>
+        <v>1.498624943220972</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.905345363565681</v>
@@ -21146,7 +20996,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.508360995033847</v>
+        <v>1.498306383882467</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.889393268649085</v>
@@ -21235,7 +21085,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.505346569729835</v>
+        <v>1.492002061859481</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.922070963990119</v>
@@ -21324,7 +21174,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.502905231352117</v>
+        <v>1.489064478187621</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.902518311289888</v>
@@ -21413,7 +21263,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.497669750351767</v>
+        <v>1.482638552479211</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.880938026351614</v>
@@ -21502,7 +21352,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.548963525501163</v>
+        <v>1.528914747306501</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.845868787700235</v>
@@ -21591,7 +21441,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.553941730046729</v>
+        <v>1.536424973529673</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.923596521299159</v>
@@ -21680,7 +21530,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.556525989271259</v>
+        <v>1.539687967257971</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.948778130754256</v>
@@ -21769,7 +21619,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.562001296006933</v>
+        <v>1.546077579918917</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.887618403417743</v>
@@ -21858,7 +21708,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.677267971198822</v>
+        <v>1.640030193851516</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.245215884103351</v>
@@ -21947,7 +21797,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.677660164401223</v>
+        <v>1.646439319212154</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.262871279917994</v>
@@ -22036,7 +21886,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.673867526871702</v>
+        <v>1.64388225798324</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.350802835721153</v>
@@ -22125,7 +21975,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.687073433334016</v>
+        <v>1.65499367846971</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.289049111835173</v>
@@ -22214,7 +22064,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.68511309081868</v>
+        <v>1.652867486989351</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.380433017532655</v>
@@ -22303,7 +22153,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.697829374524265</v>
+        <v>1.66210823046592</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.298682376728518</v>
@@ -22392,7 +22242,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.701424110143382</v>
+        <v>1.666349362445037</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.393164321122848</v>
@@ -22481,7 +22331,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.687185213526037</v>
+        <v>1.650440226810214</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.317863388207138</v>
@@ -22570,7 +22420,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.690018048432765</v>
+        <v>1.653382264227701</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.351632477228878</v>
@@ -22659,7 +22509,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.697054708105906</v>
+        <v>1.657415275089256</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.35659260262078</v>
@@ -22748,7 +22598,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.704046707131826</v>
+        <v>1.668666224437217</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.392461717068169</v>
@@ -22837,7 +22687,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.770625274455824</v>
+        <v>1.722806076306351</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.778960076224713</v>
@@ -22926,7 +22776,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.765568232367677</v>
+        <v>1.72087725076474</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.137790417814588</v>
@@ -23015,7 +22865,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.761429509305317</v>
+        <v>1.713123608271191</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.324561215077389</v>
@@ -23104,7 +22954,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.747154143966991</v>
+        <v>1.684593178627694</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.502864380474346</v>
@@ -23193,7 +23043,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.711449686493725</v>
+        <v>1.677793312167212</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.246578169867206</v>
@@ -23282,7 +23132,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.696364292353464</v>
+        <v>1.663441691587332</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.286702110050593</v>
@@ -23371,7 +23221,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.690243265469684</v>
+        <v>1.660345302670151</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.269143753236596</v>
@@ -23460,7 +23310,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.657579160678167</v>
+        <v>1.637128957263725</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.250905782704742</v>
@@ -23549,7 +23399,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.636061790629652</v>
+        <v>1.620969167624783</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.281581828773654</v>
@@ -23638,7 +23488,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.623582929152562</v>
+        <v>1.607324924127363</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.255149187918917</v>
@@ -23727,7 +23577,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.581909513436662</v>
+        <v>1.572026996432944</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.370838197542466</v>
@@ -23816,7 +23666,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.589667367747787</v>
+        <v>1.586004277477723</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.252353491791415</v>
@@ -23905,7 +23755,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.585614872335701</v>
+        <v>1.586023227569144</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.245434148386307</v>
@@ -23994,7 +23844,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.585858673018467</v>
+        <v>1.589504295177265</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.313549264254455</v>
@@ -24083,7 +23933,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.580022698329064</v>
+        <v>1.579941163182985</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.256941043265283</v>
@@ -24172,7 +24022,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.579869589441223</v>
+        <v>1.573809395762204</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.22105707236744</v>
@@ -24261,7 +24111,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.57944925107925</v>
+        <v>1.574782231609905</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.223369895116478</v>
@@ -24350,7 +24200,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.514165863761028</v>
+        <v>1.51845236417033</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.044048541294363</v>
@@ -24439,7 +24289,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.527383366976882</v>
+        <v>1.534024041638726</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.9278536360567</v>
@@ -24528,7 +24378,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.521454430755607</v>
+        <v>1.528084408349927</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.949401591123281</v>
@@ -24617,7 +24467,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.481641172284757</v>
+        <v>1.487694253170401</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.023545998886261</v>
@@ -24706,7 +24556,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.478042813813845</v>
+        <v>1.483929402925823</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.997722100983048</v>
@@ -24795,7 +24645,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.490655496619086</v>
+        <v>1.49340994764144</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.978659641149864</v>
@@ -24884,7 +24734,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.502355449291572</v>
+        <v>1.505232218526093</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.989557253309331</v>
@@ -24973,7 +24823,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.523252698890955</v>
+        <v>1.526148667432413</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.025604992628357</v>
@@ -25062,7 +24912,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.548819261328344</v>
+        <v>1.55142303324069</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.014698662742547</v>
@@ -25151,7 +25001,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.544848964629106</v>
+        <v>1.546763342869527</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.994799435972445</v>
@@ -25240,7 +25090,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.550623160462917</v>
+        <v>1.551477697874255</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.002824404540877</v>
@@ -25329,7 +25179,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.54820978782008</v>
+        <v>1.549345915173266</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.979376853360704</v>
@@ -25615,7 +25465,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.456122400488027</v>
+        <v>1.470518802158622</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.940421486440795</v>
@@ -25704,7 +25554,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.411510576783917</v>
+        <v>1.428897745282438</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.933435489751731</v>
@@ -25793,7 +25643,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.355805553867172</v>
+        <v>1.366078432580061</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.949806940951511</v>
@@ -25882,7 +25732,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.358223561537201</v>
+        <v>1.366757373860903</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.967542159025405</v>
@@ -25971,7 +25821,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.348239709168351</v>
+        <v>1.353649058575393</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.933271598709534</v>
@@ -26060,7 +25910,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.344248915331399</v>
+        <v>1.348890424447196</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.912597145131304</v>
@@ -26149,7 +25999,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.368795658515407</v>
+        <v>1.370080087041272</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.906802741723217</v>
@@ -26238,7 +26088,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.391361608023545</v>
+        <v>1.394654576025125</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.817450508439086</v>
@@ -26327,7 +26177,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.392540494166044</v>
+        <v>1.394713959032362</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.85454789288569</v>
@@ -26416,7 +26266,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.366132154542013</v>
+        <v>1.369577286197576</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.867234534689112</v>
@@ -26505,7 +26355,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.365365926738318</v>
+        <v>1.371231073147302</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.888806249862266</v>
@@ -26594,7 +26444,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.36541806446401</v>
+        <v>1.369736285959018</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.878716682489384</v>
@@ -26683,7 +26533,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.362413876100452</v>
+        <v>1.366542097237523</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.891929991886306</v>
@@ -26772,7 +26622,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.341011165356525</v>
+        <v>1.343377115531577</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.916387620569045</v>
@@ -26861,7 +26711,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.348500524203261</v>
+        <v>1.34315980416968</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.910973748907201</v>
@@ -26950,7 +26800,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.396650076364584</v>
+        <v>1.385797933273391</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.773144178917137</v>
@@ -27039,7 +26889,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.476445501262127</v>
+        <v>1.458555190156603</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.753940654901371</v>
@@ -27128,7 +26978,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.557235223841836</v>
+        <v>1.533636751112336</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.987518932207163</v>
@@ -27217,7 +27067,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.555137086070782</v>
+        <v>1.529970538290315</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.983695721106497</v>
@@ -27306,7 +27156,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.553830695300146</v>
+        <v>1.5331930287924</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.953857657928256</v>
@@ -27395,7 +27245,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.555700354748056</v>
+        <v>1.531034914602235</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.955580843284954</v>
@@ -27484,7 +27334,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.554783555275011</v>
+        <v>1.532289089469343</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.976344403998767</v>
@@ -27573,7 +27423,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.551089129200396</v>
+        <v>1.528727079437015</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.96121698769288</v>
@@ -27662,7 +27512,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.55088942402086</v>
+        <v>1.53100333057602</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.925251054434593</v>
@@ -27751,7 +27601,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.626797154633262</v>
+        <v>1.595997775256119</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.902299325105401</v>
@@ -27840,7 +27690,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.631450717708837</v>
+        <v>1.600747051889715</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.989855692980457</v>
@@ -27929,7 +27779,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.627411150383733</v>
+        <v>1.597105326180482</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.983801836954271</v>
@@ -28018,7 +27868,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.642891575942283</v>
+        <v>1.60832943384342</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.940760314822842</v>
@@ -28107,7 +27957,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.745724522154323</v>
+        <v>1.691347101346288</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.561230707405032</v>
@@ -28196,7 +28046,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.748408967442441</v>
+        <v>1.706495369134001</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.546122695911555</v>
@@ -28285,7 +28135,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.752780917426368</v>
+        <v>1.713406167959874</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.17271726822778</v>
@@ -28374,7 +28224,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.754746643095999</v>
+        <v>1.714190799204011</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.456557125826699</v>
@@ -28463,7 +28313,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.754629744620271</v>
+        <v>1.705401131849556</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.583946416294236</v>
@@ -28552,7 +28402,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.749011016435591</v>
+        <v>1.699819993886413</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.411779487367805</v>
@@ -28641,7 +28491,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.746193543118269</v>
+        <v>1.688598796333601</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.010493075050796</v>
@@ -28730,7 +28580,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.749069374990933</v>
+        <v>1.68445911020839</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.838369415008227</v>
@@ -28819,7 +28669,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.749019993705826</v>
+        <v>1.683872387157663</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.939768300052743</v>
@@ -28908,7 +28758,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.743282868514981</v>
+        <v>1.681891504880413</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.809741048431956</v>
@@ -28997,7 +28847,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.751021984441187</v>
+        <v>1.686907679542507</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.873969317123914</v>
@@ -29086,7 +28936,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.74457685192554</v>
+        <v>1.685604780019676</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.734885733156969</v>
@@ -29175,7 +29025,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.732698258321143</v>
+        <v>1.669413024500579</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.548252478825706</v>
@@ -29264,7 +29114,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.738186711647345</v>
+        <v>1.676862329880231</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.895538917762031</v>
@@ -29353,7 +29203,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.717964018716222</v>
+        <v>1.652892053427666</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.630343086899394</v>
@@ -29442,7 +29292,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.687205432051272</v>
+        <v>1.645276473833652</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.607775672339392</v>
@@ -29531,7 +29381,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.679332268936663</v>
+        <v>1.637853486681166</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.607839912937017</v>
@@ -29620,7 +29470,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.683287251567778</v>
+        <v>1.638169508101667</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.598318431570147</v>
@@ -29709,7 +29559,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.682048398628767</v>
+        <v>1.636630777544579</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.656743742975044</v>
@@ -29798,7 +29648,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.684412235956531</v>
+        <v>1.644728982088651</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.551286666189325</v>
@@ -29887,7 +29737,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.678555094131116</v>
+        <v>1.643516106354035</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.482346493816884</v>
@@ -29976,7 +29826,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.67406821528178</v>
+        <v>1.643919937481213</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.501745785049214</v>
@@ -30065,7 +29915,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.675867879266306</v>
+        <v>1.647262288114797</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.616122302486942</v>
@@ -30154,7 +30004,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.678591056394616</v>
+        <v>1.646866970516101</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.62938842397635</v>
@@ -30243,7 +30093,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.677684014798676</v>
+        <v>1.643399547000924</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.590156080299924</v>
@@ -30332,7 +30182,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.682933118520807</v>
+        <v>1.647082175704766</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.589737195090925</v>
@@ -30421,7 +30271,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.685017801556389</v>
+        <v>1.648755512201943</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.541095118871843</v>
@@ -30510,7 +30360,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.692456507985689</v>
+        <v>1.654051902352187</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.641307666268558</v>
@@ -30599,7 +30449,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.606866068838671</v>
+        <v>1.587457308052768</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.09433575741026</v>
@@ -30688,7 +30538,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.62583462722015</v>
+        <v>1.60128532187566</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.912966570536088</v>
@@ -30777,7 +30627,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.636374558525097</v>
+        <v>1.611016936322269</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.057106984274336</v>
@@ -30866,7 +30716,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.588122657954448</v>
+        <v>1.569590448267946</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.108418514410402</v>
@@ -30955,7 +30805,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.578106112781172</v>
+        <v>1.561352094423339</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.100438414135207</v>
@@ -31044,7 +30894,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.5817456459312</v>
+        <v>1.564242735737124</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.075450005743758</v>
@@ -31133,7 +30983,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.581219031965101</v>
+        <v>1.562477221395216</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.077121029260726</v>
@@ -31222,7 +31072,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.585963498293109</v>
+        <v>1.569176155972781</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.088547926037902</v>
@@ -31311,7 +31161,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.588865656493803</v>
+        <v>1.571950287785522</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.091459209630286</v>
@@ -31400,7 +31250,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.583094142134005</v>
+        <v>1.569499480895345</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.069533764547445</v>
@@ -31489,7 +31339,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.579410949922054</v>
+        <v>1.568338777232264</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.038388915559598</v>
@@ -31578,7 +31428,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.581726082913041</v>
+        <v>1.572430744736128</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.102469455597896</v>
@@ -31864,7 +31714,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.33701627201964</v>
+        <v>1.348332527362633</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.880157438963517</v>
@@ -31953,7 +31803,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.312301630172844</v>
+        <v>1.315286969755666</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.884507652098012</v>
@@ -32042,7 +31892,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.270784810690007</v>
+        <v>1.268346561307914</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.899621603647923</v>
@@ -32131,7 +31981,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.274725697682759</v>
+        <v>1.266787896297359</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.882855929849215</v>
@@ -32220,7 +32070,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.267258595724795</v>
+        <v>1.259262447485154</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.847020451400051</v>
@@ -32309,7 +32159,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.26426821262765</v>
+        <v>1.254801862553909</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.848230967181444</v>
@@ -32398,7 +32248,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.299375525566299</v>
+        <v>1.287972934951814</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.838491691861233</v>
@@ -32487,7 +32337,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.313637819461654</v>
+        <v>1.304190540341484</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.743494244483347</v>
@@ -32576,7 +32426,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.321155213558989</v>
+        <v>1.312236841868075</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.779815744751716</v>
@@ -32665,7 +32515,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.304041618122636</v>
+        <v>1.293801211983183</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.805335399340853</v>
@@ -32754,7 +32604,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.30166181659794</v>
+        <v>1.29256922222588</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.811038572423811</v>
@@ -32843,7 +32693,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.301561178060293</v>
+        <v>1.292919880703383</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.818304735011907</v>
@@ -32932,7 +32782,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.300750328750263</v>
+        <v>1.291406859728962</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.815557899051642</v>
@@ -33021,7 +32871,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.281785051283949</v>
+        <v>1.27335718297523</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.838969727663182</v>
@@ -33110,7 +32960,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.287416293976552</v>
+        <v>1.276013417585683</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.848892297307899</v>
@@ -33199,7 +33049,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.333156664691342</v>
+        <v>1.317898976761529</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.719471859258765</v>
@@ -33288,7 +33138,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.410844857362848</v>
+        <v>1.395164391108549</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.649910179180808</v>
@@ -33377,7 +33227,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.472584667451248</v>
+        <v>1.457293209843292</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.877187865056606</v>
@@ -33466,7 +33316,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.464065719534454</v>
+        <v>1.453889275574207</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.876441363778015</v>
@@ -33555,7 +33405,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.473361277172976</v>
+        <v>1.463026139797815</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.88295931758788</v>
@@ -33644,7 +33494,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.470243659915221</v>
+        <v>1.459433049793867</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.88367404335216</v>
@@ -33733,7 +33583,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.466948195351657</v>
+        <v>1.45648444940405</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.884985125619485</v>
@@ -33822,7 +33672,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.468882937359781</v>
+        <v>1.45687499815198</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.882011912169553</v>
@@ -33911,7 +33761,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.461057309413184</v>
+        <v>1.451805550788165</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.867490720611768</v>
@@ -34000,7 +33850,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.525064769755816</v>
+        <v>1.50919423918809</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.820666512504172</v>
@@ -34089,7 +33939,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.535131853731672</v>
+        <v>1.518362479963448</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.858757415476902</v>
@@ -34178,7 +34028,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.534835775874217</v>
+        <v>1.516771247475932</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.839828685808164</v>
@@ -34267,7 +34117,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.546497755994086</v>
+        <v>1.528899937672459</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.846711412196756</v>
@@ -34356,7 +34206,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.666145791577022</v>
+        <v>1.631172255101347</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.202555748262625</v>
@@ -34445,7 +34295,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.668299683530247</v>
+        <v>1.634756337970829</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.987138861222542</v>
@@ -34534,7 +34384,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.670093717566355</v>
+        <v>1.637689253797155</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.162045237316033</v>
@@ -34623,7 +34473,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.689302143580073</v>
+        <v>1.65646039445495</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.469479473431776</v>
@@ -34712,7 +34562,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.693366975589105</v>
+        <v>1.662249987469961</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.770809949115982</v>
@@ -34801,7 +34651,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.691874460662748</v>
+        <v>1.662554502279979</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.509566886393382</v>
@@ -34890,7 +34740,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.682552523423144</v>
+        <v>1.65365641392021</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.348242219766778</v>
@@ -34979,7 +34829,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.691792034379684</v>
+        <v>1.65876277370603</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.31613004514122</v>
@@ -35068,7 +34918,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.694019871930604</v>
+        <v>1.66273620183506</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.765323024070491</v>
@@ -35157,7 +35007,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.696258489798823</v>
+        <v>1.668707342928211</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.704583725824099</v>
@@ -35246,7 +35096,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.715689128035456</v>
+        <v>1.684711438662752</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.765314103233706</v>
@@ -35335,7 +35185,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.717176151559084</v>
+        <v>1.689608870191745</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.867087044241685</v>
@@ -35424,7 +35274,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.712100971944137</v>
+        <v>1.680861013865161</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.041612776841971</v>
@@ -35513,7 +35363,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.705789522604754</v>
+        <v>1.680162062547782</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.566077966833016</v>
@@ -35602,7 +35452,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.680837833884266</v>
+        <v>1.647797795737622</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.319091715225069</v>
@@ -35691,7 +35541,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.622271052723643</v>
+        <v>1.610427332504267</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.254413182064638</v>
@@ -35780,7 +35630,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.615018689825298</v>
+        <v>1.602478367189955</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.397755714783061</v>
@@ -35869,7 +35719,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.613861238673398</v>
+        <v>1.600333757546191</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.396112935686374</v>
@@ -35958,7 +35808,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.60991370112251</v>
+        <v>1.595532915076565</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.435920621911168</v>
@@ -36047,7 +35897,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.620967396704328</v>
+        <v>1.605665724267707</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.430230705367934</v>
@@ -36136,7 +35986,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.618087057617726</v>
+        <v>1.605435202415938</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.28108679882231</v>
@@ -36225,7 +36075,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.609466497325339</v>
+        <v>1.597484248652279</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.411484869810747</v>
@@ -36314,7 +36164,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.601665777684018</v>
+        <v>1.58850098590619</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.388746666044696</v>
@@ -36403,7 +36253,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.601458194005571</v>
+        <v>1.586126173117245</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.332629272496364</v>
@@ -36492,7 +36342,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.59351337977731</v>
+        <v>1.576553697613821</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.395060909853842</v>
@@ -36581,7 +36431,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.580579537149193</v>
+        <v>1.567539874016469</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.37048260920217</v>
@@ -36670,7 +36520,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.584672592605335</v>
+        <v>1.57280360773974</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.41812215782199</v>
@@ -36759,7 +36609,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.579453914936545</v>
+        <v>1.570939901563488</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.408125914619755</v>
@@ -36848,7 +36698,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.522715309928106</v>
+        <v>1.51671343510026</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.019730335131922</v>
@@ -36937,7 +36787,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.531594220384609</v>
+        <v>1.524993657970165</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.822144848762023</v>
@@ -37026,7 +36876,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.553325992179653</v>
+        <v>1.544905115224821</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.935031463565387</v>
@@ -37115,7 +36965,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.492461301369801</v>
+        <v>1.494140337827182</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.968777627464555</v>
@@ -37204,7 +37054,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.488632092284323</v>
+        <v>1.491478783286781</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.964059513472211</v>
@@ -37293,7 +37143,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.478111762207592</v>
+        <v>1.482344378102409</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.947364076062265</v>
@@ -37382,7 +37232,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.470911376247158</v>
+        <v>1.47071615590394</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.937123686409242</v>
@@ -37471,7 +37321,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.475436643642331</v>
+        <v>1.476536121415017</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.928104430618732</v>
@@ -37560,7 +37410,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.481112958152478</v>
+        <v>1.483008036127549</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.925009328226441</v>
@@ -37649,7 +37499,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.476665347256961</v>
+        <v>1.479759724265379</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.936816881307724</v>
@@ -37738,7 +37588,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.477323155161481</v>
+        <v>1.480033436561951</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.945628915238193</v>
@@ -37827,7 +37677,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.482527818582027</v>
+        <v>1.483864887256401</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.944626326702215</v>
@@ -38113,7 +37963,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.365225269257093</v>
+        <v>1.378938347022942</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.936559310082879</v>
@@ -38202,7 +38052,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.337928970857892</v>
+        <v>1.348506643666505</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.98645802936028</v>
@@ -38291,7 +38141,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.304452135592851</v>
+        <v>1.307211108300968</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.028881247330177</v>
@@ -38380,7 +38230,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.318734568609507</v>
+        <v>1.32357554950633</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.007130124039777</v>
@@ -38469,7 +38319,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.314431984037498</v>
+        <v>1.316727380568424</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.006639877936707</v>
@@ -38558,7 +38408,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.310256730022493</v>
+        <v>1.313591268265301</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.940294491513925</v>
@@ -38647,7 +38497,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.346389401871731</v>
+        <v>1.349966011787893</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.974833798401274</v>
@@ -38736,7 +38586,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.369195446718826</v>
+        <v>1.374989801452395</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.870379326448007</v>
@@ -38825,7 +38675,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.374858500216482</v>
+        <v>1.380539312319065</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.92765242483373</v>
@@ -38914,7 +38764,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.351585845820167</v>
+        <v>1.354114881337575</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.948883114874881</v>
@@ -39003,7 +38853,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.349933215732103</v>
+        <v>1.353862274816385</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.948019650710184</v>
@@ -39092,7 +38942,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.343522782947098</v>
+        <v>1.345622055856308</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.939863939645575</v>
@@ -39181,7 +39031,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.343485403894696</v>
+        <v>1.344542810873524</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.950407511736566</v>
@@ -39270,7 +39120,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.324934617815616</v>
+        <v>1.324071196456881</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.982782757787967</v>
@@ -39359,7 +39209,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.354223484469772</v>
+        <v>1.34805085159158</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.937670241466819</v>
@@ -39448,7 +39298,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.375281751577347</v>
+        <v>1.371887564329982</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.782572075683207</v>
@@ -39537,7 +39387,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.458189165936584</v>
+        <v>1.455012365417587</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.752809567580774</v>
@@ -39626,7 +39476,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.52189959014454</v>
+        <v>1.516237627045486</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.997598900443108</v>
@@ -39715,7 +39565,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.513656109671857</v>
+        <v>1.508824080377985</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.96203869605682</v>
@@ -39804,7 +39654,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.519807166860539</v>
+        <v>1.513862996404579</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.926460953353115</v>
@@ -39893,7 +39743,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.527553619072471</v>
+        <v>1.517472373389975</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.959675447330202</v>
@@ -39982,7 +39832,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.52357722312179</v>
+        <v>1.515541613503899</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.961943243024368</v>
@@ -40071,7 +39921,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.521218211023002</v>
+        <v>1.512728171281497</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.933767644057255</v>
@@ -40160,7 +40010,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.509161577356062</v>
+        <v>1.503675562774677</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.931140878724742</v>
@@ -40249,7 +40099,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.583617894402999</v>
+        <v>1.570147102986819</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.886093187478795</v>
@@ -40338,7 +40188,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.561196983339798</v>
+        <v>1.548640365407272</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.965156012481105</v>
@@ -40427,7 +40277,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.563336693244182</v>
+        <v>1.551727614838117</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.92781428627148</v>
@@ -40516,7 +40366,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.558854860689415</v>
+        <v>1.548407529022814</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.896314980876745</v>
@@ -40605,7 +40455,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.661486719736626</v>
+        <v>1.637040858309059</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.639006853266806</v>
@@ -40694,7 +40544,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.635560337194756</v>
+        <v>1.616343756565862</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.883108737365893</v>
@@ -40783,7 +40633,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.628455770184878</v>
+        <v>1.61746971078283</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.764823486246785</v>
@@ -40872,7 +40722,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.638007356446251</v>
+        <v>1.626877739466108</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.82112135083068</v>
@@ -40961,7 +40811,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.645579908947012</v>
+        <v>1.637148646048389</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.740378038429907</v>
@@ -41050,7 +40900,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.647501403078568</v>
+        <v>1.63809063818155</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.851050897265142</v>
@@ -41139,7 +40989,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.645850174563333</v>
+        <v>1.634368432737404</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.76717729080031</v>
@@ -41228,7 +41078,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.612833656746717</v>
+        <v>1.611321945625915</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.699449570724127</v>
@@ -41317,7 +41167,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.610607604032577</v>
+        <v>1.609742833025058</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.689686441595364</v>
@@ -41406,7 +41256,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.625539004117417</v>
+        <v>1.624390145365768</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.691791326620002</v>
@@ -41495,7 +41345,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.63764248373775</v>
+        <v>1.637185774581482</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.675589923174364</v>
@@ -41584,7 +41434,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.649957307323606</v>
+        <v>1.651718657225824</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.555918455328069</v>
@@ -41673,7 +41523,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.670255365220437</v>
+        <v>1.670078159934338</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.874712286865352</v>
@@ -41762,7 +41612,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.66064026177732</v>
+        <v>1.661567310058281</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.833490899722131</v>
@@ -41851,7 +41701,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.661650610759478</v>
+        <v>1.643971012350733</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.542699222995859</v>
@@ -41940,7 +41790,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.61321246138758</v>
+        <v>1.614486865397294</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.408407347832819</v>
@@ -42029,7 +41879,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.635714963297104</v>
+        <v>1.632744463113323</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.509026146122866</v>
@@ -42118,7 +41968,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.637656711406541</v>
+        <v>1.634252293383643</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.445996001962138</v>
@@ -42207,7 +42057,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.631188087732653</v>
+        <v>1.630602712420232</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.438925291941794</v>
@@ -42296,7 +42146,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.62854812346036</v>
+        <v>1.62522307903297</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.464288004997154</v>
@@ -42385,7 +42235,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.625848949950267</v>
+        <v>1.619609145441697</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.479954592945663</v>
@@ -42474,7 +42324,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.641594291574081</v>
+        <v>1.629336767259623</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.16021423688293</v>
@@ -42563,7 +42413,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.65593988829125</v>
+        <v>1.642488783899354</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.469686150660683</v>
@@ -42652,7 +42502,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.655891178344325</v>
+        <v>1.636009598825317</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.497420030142865</v>
@@ -42741,7 +42591,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.645771591355236</v>
+        <v>1.62576923033131</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.463602931605883</v>
@@ -42830,7 +42680,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.643621184945229</v>
+        <v>1.621970097671337</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.446616161671173</v>
@@ -42919,7 +42769,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.639211319270292</v>
+        <v>1.614646836116478</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.346075288413625</v>
@@ -43008,7 +42858,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.639150948492491</v>
+        <v>1.614862611734358</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.264933491123123</v>
@@ -43097,7 +42947,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.562197587824997</v>
+        <v>1.553204815889744</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.025791616412889</v>
@@ -43186,7 +43036,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.572035852016401</v>
+        <v>1.559550842597338</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.831717041532449</v>
@@ -43275,7 +43125,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.581058449607011</v>
+        <v>1.575414519779494</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.020908596452824</v>
@@ -43364,7 +43214,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.518911521192371</v>
+        <v>1.519271602615439</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.010179507482313</v>
@@ -43453,7 +43303,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.495648888033467</v>
+        <v>1.500392348031813</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.002924871566687</v>
@@ -43542,7 +43392,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.4974948341631</v>
+        <v>1.500186061341821</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.991571895169614</v>
@@ -43631,7 +43481,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.498905088024343</v>
+        <v>1.507111427918864</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.00570619048962</v>
@@ -43720,7 +43570,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.502000496800718</v>
+        <v>1.514779749739493</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.005303794054144</v>
@@ -43809,7 +43659,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.493221774908215</v>
+        <v>1.507575799986141</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.989063055853392</v>
@@ -43898,7 +43748,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.489534348205853</v>
+        <v>1.506735992646941</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.017024182375495</v>
@@ -43987,7 +43837,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.491705250777534</v>
+        <v>1.517805611236389</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.006194641569274</v>
@@ -44076,7 +43926,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.493710546727403</v>
+        <v>1.517821282294524</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.02936703847748</v>
